--- a/backend/fms_core/tests/valid_templates/Sample_identity_QC_v5_2_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_identity_QC_v5_2_0.xlsx
@@ -1891,15 +1891,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X892"/>
+  <dimension ref="A1:X893"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
@@ -2015,46 +2015,28 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>2</v>
@@ -2066,22 +2048,40 @@
         <v>17</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
@@ -2171,7 +2171,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3062,7 +3062,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3194,7 +3194,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4085,7 +4085,7 @@
       <c r="H191" s="13"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -4217,7 +4217,7 @@
       <c r="H203" s="13"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -5097,7 +5097,7 @@
       <c r="H283" s="13"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -5229,7 +5229,7 @@
       <c r="H295" s="13"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -6253,17 +6253,27 @@
       <c r="I388" s="14"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="15"/>
-      <c r="B389" s="16"/>
-      <c r="C389" s="16"/>
-      <c r="D389" s="16"/>
-      <c r="E389" s="15"/>
-      <c r="F389" s="15"/>
-      <c r="G389" s="17"/>
-      <c r="H389" s="18"/>
-      <c r="I389" s="19"/>
-    </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A389" s="10"/>
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="10"/>
+      <c r="F389" s="10"/>
+      <c r="G389" s="12"/>
+      <c r="H389" s="13"/>
+      <c r="I389" s="14"/>
+    </row>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="15"/>
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
+      <c r="E390" s="15"/>
+      <c r="F390" s="15"/>
+      <c r="G390" s="17"/>
+      <c r="H390" s="18"/>
+      <c r="I390" s="19"/>
+    </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6766,21 +6776,22 @@
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I9:I389" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I10:I390" type="list">
       <formula1>Index!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:D389" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:D390" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F389" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F390" type="list">
       <formula1>Index!$D$2:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I9" type="list">
       <formula1>Index!$E$2:$E$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6806,7 +6817,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="1" style="20" width="10.42"/>
   </cols>
@@ -7049,7 +7060,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.33"/>
   </cols>
@@ -8096,7 +8107,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
